--- a/Assets/MiniTemplate/Datas/__enums__.xlsx
+++ b/Assets/MiniTemplate/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -123,30 +123,6 @@
   </si>
   <si>
     <t>最高品质</t>
-  </si>
-  <si>
-    <t>test.AccessFlag</t>
-  </si>
-  <si>
-    <t>WRITE</t>
-  </si>
-  <si>
-    <t>READ</t>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>READ_WRITE</t>
-  </si>
-  <si>
-    <t>WRITE|READ</t>
-  </si>
-  <si>
-    <t>位标记使用示例</t>
   </si>
 </sst>
 </file>
@@ -1109,13 +1085,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1279,58 +1255,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="8:10">
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="8:10">
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="8:10">
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="8:11">
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
